--- a/data_year/zb/卫生/城市居民主要疾病死亡率及死因构成/城市居民主要疾病粗死亡率位次.xlsx
+++ b/data_year/zb/卫生/城市居民主要疾病死亡率及死因构成/城市居民主要疾病粗死亡率位次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -733,14 +733,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -752,10 +752,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
@@ -776,52 +776,52 @@
         <v>18</v>
       </c>
       <c r="O2" t="n">
+        <v>16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
         <v>17</v>
       </c>
-      <c r="P2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>19</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16</v>
-      </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -854,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -917,14 +917,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>15</v>
@@ -963,31 +963,31 @@
         <v>16</v>
       </c>
       <c r="P3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="n">
         <v>19</v>
       </c>
-      <c r="Q3" t="n">
-        <v>20</v>
-      </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
         <v>7</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -999,13 +999,13 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -1056,13 +1056,13 @@
         <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>6</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>14</v>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
@@ -1080,19 +1080,19 @@
         <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>13</v>
       </c>
       <c r="BE3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF3" t="n">
         <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BH3" t="n">
         <v>12</v>
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1111,10 +1111,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -1126,16 +1126,16 @@
         <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -1147,34 +1147,34 @@
         <v>16</v>
       </c>
       <c r="P4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="n">
         <v>20</v>
       </c>
-      <c r="Q4" t="n">
-        <v>19</v>
-      </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>3</v>
@@ -1183,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
         <v>20</v>
@@ -1204,19 +1204,19 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1243,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
         <v>18</v>
@@ -1285,56 +1285,48 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>14</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="n">
-        <v>18</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -1343,38 +1335,36 @@
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>3</v>
       </c>
       <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD5" t="n">
         <v>17</v>
       </c>
-      <c r="AB5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19</v>
-      </c>
       <c r="AE5" t="n">
         <v>2</v>
       </c>
@@ -1388,34 +1378,30 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -1427,53 +1413,49 @@
         <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
         <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BE5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BF5" t="n">
         <v>3</v>
       </c>
       <c r="BG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="BH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>13</v>
@@ -1493,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
@@ -1504,7 +1486,7 @@
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" t="n">
         <v>16</v>
@@ -1559,10 +1541,10 @@
         <v>5</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
         <v>8</v>
@@ -1585,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>1</v>
@@ -1594,13 +1576,13 @@
         <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1609,14 +1591,14 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>11</v>
@@ -1635,11 +1617,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>13</v>
@@ -1653,13 +1635,13 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
@@ -1670,7 +1652,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7" t="n">
         <v>16</v>
@@ -1725,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1738,7 +1720,7 @@
       </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
@@ -1751,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1763,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>10</v>
@@ -1772,13 +1754,13 @@
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="n">
@@ -1788,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="BE7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BF7" t="n">
         <v>3</v>
@@ -1801,14 +1783,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
@@ -1819,13 +1799,11 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
@@ -1836,7 +1814,7 @@
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P8" t="n">
         <v>16</v>
@@ -1891,16 +1869,14 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>7</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
@@ -1917,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS8" t="n">
         <v>1</v>
@@ -1926,22 +1902,22 @@
         <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA8" t="n">
         <v>15</v>
@@ -1967,10 +1943,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
       <c r="C9" t="n">
         <v>14</v>
       </c>
@@ -1985,9 +1963,11 @@
       <c r="H9" t="n">
         <v>13</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
@@ -1998,7 +1978,7 @@
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" t="n">
         <v>16</v>
@@ -2025,10 +2005,10 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>3</v>
@@ -2058,7 +2038,9 @@
       <c r="AI9" t="n">
         <v>7</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
       <c r="AK9" t="n">
         <v>14</v>
       </c>
@@ -2127,7 +2109,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2145,13 +2127,13 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
@@ -2162,7 +2144,7 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" t="n">
         <v>16</v>
@@ -2189,16 +2171,16 @@
         <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
@@ -2223,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>14</v>
@@ -2237,7 +2219,7 @@
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>16</v>
@@ -2258,13 +2240,13 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ10" t="n">
         <v>3</v>
@@ -2286,19 +2268,17 @@
         <v>3</v>
       </c>
       <c r="BG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>14</v>
       </c>
@@ -2313,9 +2293,7 @@
       <c r="H11" t="n">
         <v>15</v>
       </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>14</v>
       </c>
@@ -2368,10 +2346,10 @@
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2388,11 +2366,9 @@
       <c r="AI11" t="n">
         <v>7</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="n">
@@ -2436,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="n">
@@ -2459,12 +2435,12 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -2475,7 +2451,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -2502,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -2523,7 +2499,7 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
         <v>13</v>
@@ -2563,7 +2539,7 @@
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
         <v>16</v>
@@ -2578,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>7</v>
@@ -2619,12 +2595,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -2635,9 +2613,11 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>14</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
       <c r="J13" t="n">
         <v>14</v>
       </c>
@@ -2653,10 +2633,10 @@
         <v>15</v>
       </c>
       <c r="P13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -2677,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2696,10 +2676,10 @@
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
@@ -2710,9 +2690,11 @@
       <c r="AI13" t="n">
         <v>7</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="n">
@@ -2723,7 +2705,7 @@
       </c>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>16</v>
